--- a/documents/finalresults.xlsx
+++ b/documents/finalresults.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="26">
   <si>
     <t xml:space="preserve">LDA </t>
   </si>
@@ -98,6 +98,12 @@
   <si>
     <t>q3</t>
   </si>
+  <si>
+    <t xml:space="preserve">all results obtained when running the LDA classifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 words spoken </t>
+  </si>
 </sst>
 </file>
 
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -571,17 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -596,15 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -617,6 +605,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,97 +908,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="7" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>84</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>64</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15">
+      <c r="D4" s="11">
+        <v>66</v>
+      </c>
+      <c r="E4" s="12">
         <v>45</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="13">
-        <v>90</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="10">
+        <v>90</v>
+      </c>
+      <c r="J4" s="11">
         <v>51</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15">
+      <c r="K4" s="11">
+        <v>65</v>
+      </c>
+      <c r="L4" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
@@ -998,13 +1011,15 @@
       <c r="C5" s="1">
         <v>67</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>61</v>
+      </c>
       <c r="E5" s="2">
         <v>37</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="5">
@@ -1013,13 +1028,15 @@
       <c r="J5" s="1">
         <v>64</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>56</v>
+      </c>
       <c r="L5" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
@@ -1028,13 +1045,15 @@
       <c r="C6" s="1">
         <v>82</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>66</v>
+      </c>
       <c r="E6" s="2">
         <v>67</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="5">
@@ -1043,13 +1062,15 @@
       <c r="J6" s="1">
         <v>67</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>70</v>
+      </c>
       <c r="L6" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
@@ -1058,13 +1079,15 @@
       <c r="C7" s="1">
         <v>67</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>86</v>
+      </c>
       <c r="E7" s="2">
         <v>45</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="5">
@@ -1073,13 +1096,15 @@
       <c r="J7" s="1">
         <v>61</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>69</v>
+      </c>
       <c r="L7" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
@@ -1088,13 +1113,15 @@
       <c r="C8" s="1">
         <v>53</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>53</v>
+      </c>
       <c r="E8" s="2">
         <v>23</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="5">
@@ -1103,13 +1130,15 @@
       <c r="J8" s="1">
         <v>48</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>55</v>
+      </c>
       <c r="L8" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
@@ -1118,13 +1147,15 @@
       <c r="C9" s="3">
         <v>58</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>57</v>
+      </c>
       <c r="E9" s="4">
         <v>28</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="6">
@@ -1133,128 +1164,134 @@
       <c r="J9" s="3">
         <v>42</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>37</v>
+      </c>
       <c r="L9" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="28">
         <f xml:space="preserve"> SUM(B4:B9)/6</f>
         <v>84</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="28">
         <f t="shared" ref="C10:E10" si="0" xml:space="preserve"> SUM(C4:C9)/6</f>
         <v>65.166666666666671</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="35">
+        <v>64.833333333333329</v>
+      </c>
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>40.833333333333336</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="33" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="28">
         <f xml:space="preserve"> SUM(I4:I9)/6</f>
         <v>80.333333333333329</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="28">
         <f t="shared" ref="J10:L10" si="1" xml:space="preserve"> SUM(J4:J9)/6</f>
         <v>55.5</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="L10" s="29">
         <f t="shared" si="1"/>
         <v>35.833333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="H13" s="26" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="H13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="30" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>79</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>55</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15">
+      <c r="D15" s="11">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12">
         <v>36</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>82</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <v>53</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15">
+      <c r="K15" s="11">
+        <v>58</v>
+      </c>
+      <c r="L15" s="12">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="5">
@@ -1263,26 +1300,30 @@
       <c r="C16" s="1">
         <v>64</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>56</v>
+      </c>
       <c r="E16" s="2">
         <v>33</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="5">
         <v>75</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="19">
         <v>55</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>58</v>
+      </c>
       <c r="L16" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -1291,26 +1332,30 @@
       <c r="C17" s="1">
         <v>76</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>70</v>
+      </c>
       <c r="E17" s="2">
         <v>64</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="5">
         <v>85</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="19">
         <v>58</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>81</v>
+      </c>
       <c r="L17" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="5">
@@ -1319,26 +1364,30 @@
       <c r="C18" s="1">
         <v>64</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>67</v>
+      </c>
       <c r="E18" s="2">
         <v>38</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="5">
         <v>86</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <v>56</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>70</v>
+      </c>
       <c r="L18" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="5">
@@ -1347,26 +1396,30 @@
       <c r="C19" s="1">
         <v>50</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>46</v>
+      </c>
       <c r="E19" s="2">
         <v>23</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="5">
         <v>76</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <v>39</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>45</v>
+      </c>
       <c r="L19" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="6">
@@ -1375,60 +1428,64 @@
       <c r="C20" s="3">
         <v>49</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>33</v>
+      </c>
       <c r="E20" s="4">
         <v>27</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="6">
         <v>48</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="20">
         <v>28</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>53</v>
+      </c>
       <c r="L20" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="28">
         <f xml:space="preserve"> SUM(B15:B20)/6</f>
         <v>79.833333333333329</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="28">
         <f t="shared" ref="C21:L21" si="2" xml:space="preserve"> SUM(C15:C20)/6</f>
         <v>59.666666666666664</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="35">
+        <v>55</v>
+      </c>
+      <c r="E21" s="29">
         <f t="shared" si="2"/>
         <v>36.833333333333336</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="28">
         <f t="shared" si="2"/>
         <v>75.333333333333329</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="28">
         <f t="shared" si="2"/>
         <v>48.166666666666664</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="35">
+        <v>60.833333333333336</v>
+      </c>
+      <c r="L21" s="29">
         <f t="shared" si="2"/>
         <v>32.333333333333336</v>
       </c>
@@ -1449,26 +1506,40 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="O2" t="s">
         <v>4</v>
       </c>
@@ -1489,37 +1560,37 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24">
-        <v>90</v>
-      </c>
-      <c r="C3" s="24">
-        <v>90</v>
-      </c>
-      <c r="D3" s="24">
-        <v>100</v>
-      </c>
-      <c r="E3" s="24">
-        <v>100</v>
-      </c>
-      <c r="F3" s="24">
-        <v>100</v>
-      </c>
-      <c r="G3" s="24">
-        <v>90</v>
-      </c>
-      <c r="H3" s="24">
-        <v>80</v>
-      </c>
-      <c r="I3" s="24">
-        <v>90</v>
-      </c>
-      <c r="J3" s="24">
-        <v>80</v>
-      </c>
-      <c r="K3" s="37">
+      <c r="B3" s="21">
+        <v>90</v>
+      </c>
+      <c r="C3" s="21">
+        <v>90</v>
+      </c>
+      <c r="D3" s="21">
+        <v>100</v>
+      </c>
+      <c r="E3" s="21">
+        <v>100</v>
+      </c>
+      <c r="F3" s="21">
+        <v>100</v>
+      </c>
+      <c r="G3" s="21">
+        <v>90</v>
+      </c>
+      <c r="H3" s="21">
+        <v>80</v>
+      </c>
+      <c r="I3" s="21">
+        <v>90</v>
+      </c>
+      <c r="J3" s="21">
+        <v>80</v>
+      </c>
+      <c r="K3" s="31">
         <v>80</v>
       </c>
       <c r="N3" t="s">
@@ -1551,37 +1622,37 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>70</v>
       </c>
-      <c r="C4" s="24">
-        <v>90</v>
-      </c>
-      <c r="D4" s="24">
-        <v>80</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="C4" s="21">
+        <v>90</v>
+      </c>
+      <c r="D4" s="21">
+        <v>80</v>
+      </c>
+      <c r="E4" s="21">
         <v>60</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>70</v>
       </c>
-      <c r="G4" s="24">
-        <v>90</v>
-      </c>
-      <c r="H4" s="24">
-        <v>80</v>
-      </c>
-      <c r="I4" s="24">
-        <v>90</v>
-      </c>
-      <c r="J4" s="24">
-        <v>90</v>
-      </c>
-      <c r="K4" s="37">
+      <c r="G4" s="21">
+        <v>90</v>
+      </c>
+      <c r="H4" s="21">
+        <v>80</v>
+      </c>
+      <c r="I4" s="21">
+        <v>90</v>
+      </c>
+      <c r="J4" s="21">
+        <v>90</v>
+      </c>
+      <c r="K4" s="31">
         <v>80</v>
       </c>
       <c r="N4" t="s">
@@ -1592,930 +1663,1390 @@
         <v>80</v>
       </c>
       <c r="P4">
-        <f xml:space="preserve"> _xlfn.QUARTILE.EXC(C3:L3,1)</f>
-        <v>80</v>
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B4:$K4,1)</f>
+        <v>70</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="P4:T4" si="0" xml:space="preserve"> _xlfn.QUARTILE.EXC(D3:M3,1)</f>
-        <v>80</v>
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B5:$K5,1)</f>
+        <v>77.5</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B6:$K6,1)</f>
+        <v>87.5</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B7:$K7,1)</f>
         <v>80</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B8:$K8,1)</f>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>70</v>
       </c>
-      <c r="C5" s="24">
-        <v>100</v>
-      </c>
-      <c r="D5" s="24">
-        <v>80</v>
-      </c>
-      <c r="E5" s="24">
-        <v>80</v>
-      </c>
-      <c r="F5" s="24">
-        <v>80</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="C5" s="21">
+        <v>100</v>
+      </c>
+      <c r="D5" s="21">
+        <v>80</v>
+      </c>
+      <c r="E5" s="21">
+        <v>80</v>
+      </c>
+      <c r="F5" s="21">
+        <v>80</v>
+      </c>
+      <c r="G5" s="21">
         <v>70</v>
       </c>
-      <c r="H5" s="24">
-        <v>80</v>
-      </c>
-      <c r="I5" s="24">
-        <v>90</v>
-      </c>
-      <c r="J5" s="24">
-        <v>100</v>
-      </c>
-      <c r="K5" s="37">
+      <c r="H5" s="21">
+        <v>80</v>
+      </c>
+      <c r="I5" s="21">
+        <v>90</v>
+      </c>
+      <c r="J5" s="21">
+        <v>100</v>
+      </c>
+      <c r="K5" s="31">
         <v>80</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
       <c r="O5">
-        <f>MIN(B3:K3)</f>
+        <f>MIN($B3:$K3)</f>
         <v>80</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:T5" si="1">MIN(C3:L3)</f>
-        <v>80</v>
+        <f>MIN($B4:$K4)</f>
+        <v>60</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>MIN($B5:$K5)</f>
+        <v>70</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>MIN($B6:$K6)</f>
         <v>80</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>MIN($B7:$K7)</f>
+        <v>70</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>MIN($B8:$K8)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24">
-        <v>90</v>
-      </c>
-      <c r="C6" s="24">
-        <v>90</v>
-      </c>
-      <c r="D6" s="24">
-        <v>90</v>
-      </c>
-      <c r="E6" s="24">
-        <v>100</v>
-      </c>
-      <c r="F6" s="24">
-        <v>100</v>
-      </c>
-      <c r="G6" s="24">
-        <v>90</v>
-      </c>
-      <c r="H6" s="24">
-        <v>80</v>
-      </c>
-      <c r="I6" s="24">
-        <v>100</v>
-      </c>
-      <c r="J6" s="24">
-        <v>80</v>
-      </c>
-      <c r="K6" s="37">
+      <c r="B6" s="21">
+        <v>90</v>
+      </c>
+      <c r="C6" s="21">
+        <v>90</v>
+      </c>
+      <c r="D6" s="21">
+        <v>90</v>
+      </c>
+      <c r="E6" s="21">
+        <v>100</v>
+      </c>
+      <c r="F6" s="21">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21">
+        <v>90</v>
+      </c>
+      <c r="H6" s="21">
+        <v>80</v>
+      </c>
+      <c r="I6" s="21">
+        <v>100</v>
+      </c>
+      <c r="J6" s="21">
+        <v>80</v>
+      </c>
+      <c r="K6" s="31">
         <v>90</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
       <c r="O6">
-        <f>MAX(B3:K3)</f>
+        <f>MAX($B3:$K3)</f>
         <v>100</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:T6" si="2">MAX(C3:L3)</f>
-        <v>100</v>
+        <f>MAX($B4:$K4)</f>
+        <v>90</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f>MAX($B5:$K5)</f>
         <v>100</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f>MAX($B6:$K6)</f>
         <v>100</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f>MAX($B7:$K7)</f>
         <v>100</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f>MAX($B8:$K8)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24">
-        <v>80</v>
-      </c>
-      <c r="C7" s="24">
-        <v>90</v>
-      </c>
-      <c r="D7" s="24">
-        <v>80</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="B7" s="21">
+        <v>80</v>
+      </c>
+      <c r="C7" s="21">
+        <v>90</v>
+      </c>
+      <c r="D7" s="21">
+        <v>80</v>
+      </c>
+      <c r="E7" s="21">
         <v>70</v>
       </c>
-      <c r="F7" s="24">
-        <v>100</v>
-      </c>
-      <c r="G7" s="24">
-        <v>90</v>
-      </c>
-      <c r="H7" s="24">
-        <v>90</v>
-      </c>
-      <c r="I7" s="24">
-        <v>100</v>
-      </c>
-      <c r="J7" s="24">
-        <v>90</v>
-      </c>
-      <c r="K7" s="37">
+      <c r="F7" s="21">
+        <v>100</v>
+      </c>
+      <c r="G7" s="21">
+        <v>90</v>
+      </c>
+      <c r="H7" s="21">
+        <v>90</v>
+      </c>
+      <c r="I7" s="21">
+        <v>100</v>
+      </c>
+      <c r="J7" s="21">
+        <v>90</v>
+      </c>
+      <c r="K7" s="31">
         <v>90</v>
       </c>
       <c r="N7" t="s">
         <v>23</v>
       </c>
       <c r="O7">
-        <f>_xlfn.QUARTILE.EXC(B3:K3,3)</f>
+        <f>_xlfn.QUARTILE.EXC($B3:$K3,3)</f>
         <v>100</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:T7" si="3">_xlfn.QUARTILE.EXC(C3:L3,3)</f>
-        <v>100</v>
+        <f>_xlfn.QUARTILE.EXC($B4:$K4,3)</f>
+        <v>90</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f>_xlfn.QUARTILE.EXC($B5:$K5,3)</f>
+        <v>92.5</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f>_xlfn.QUARTILE.EXC($B6:$K6,3)</f>
         <v>100</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>_xlfn.QUARTILE.EXC($B7:$K7,3)</f>
+        <v>92.5</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>_xlfn.QUARTILE.EXC($B8:$K8,3)</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="32">
         <v>30</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="32">
         <v>50</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <v>60</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>70</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="32">
         <v>70</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <v>50</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="32">
         <v>30</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="32">
         <v>40</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="32">
         <v>60</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21">
+        <v>100</v>
+      </c>
+      <c r="C11" s="21">
+        <v>100</v>
+      </c>
+      <c r="D11" s="21">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21">
+        <v>70</v>
+      </c>
+      <c r="F11" s="21">
+        <v>80</v>
+      </c>
+      <c r="G11" s="21">
+        <v>90</v>
+      </c>
+      <c r="H11" s="21">
+        <v>70</v>
+      </c>
+      <c r="I11" s="21">
+        <v>60</v>
+      </c>
+      <c r="J11" s="21">
+        <v>70</v>
+      </c>
+      <c r="K11" s="31">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <f xml:space="preserve"> MEDIAN($B11:$K11)</f>
+        <v>85</v>
+      </c>
+      <c r="P11">
+        <f xml:space="preserve"> MEDIAN($B12:$K12)</f>
+        <v>85</v>
+      </c>
+      <c r="Q11">
+        <f xml:space="preserve"> MEDIAN($B13:$K13)</f>
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <f xml:space="preserve"> MEDIAN($B14:$K14)</f>
+        <v>85</v>
+      </c>
+      <c r="S11">
+        <f xml:space="preserve"> MEDIAN($B15:$K15)</f>
+        <v>85</v>
+      </c>
+      <c r="T11">
+        <f xml:space="preserve"> MEDIAN($B16:$K16)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21">
+        <v>90</v>
+      </c>
+      <c r="C12" s="21">
+        <v>70</v>
+      </c>
+      <c r="D12" s="21">
+        <v>70</v>
+      </c>
+      <c r="E12" s="21">
+        <v>60</v>
+      </c>
+      <c r="F12" s="21">
+        <v>90</v>
+      </c>
+      <c r="G12" s="21">
+        <v>90</v>
+      </c>
+      <c r="H12" s="21">
+        <v>90</v>
+      </c>
+      <c r="I12" s="21">
+        <v>100</v>
+      </c>
+      <c r="J12" s="21">
+        <v>70</v>
+      </c>
+      <c r="K12" s="31">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B11:$K11,1)</f>
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B12:$K12,1)</f>
+        <v>70</v>
+      </c>
+      <c r="Q12">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B13:$K13,1)</f>
+        <v>97.5</v>
+      </c>
+      <c r="R12">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B14:$K14,1)</f>
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B15:$K15,1)</f>
+        <v>77.5</v>
+      </c>
+      <c r="T12">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B16:$K16,1)</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="21">
+        <v>100</v>
+      </c>
+      <c r="C13" s="21">
+        <v>100</v>
+      </c>
+      <c r="D13" s="21">
+        <v>100</v>
+      </c>
+      <c r="E13" s="21">
+        <v>100</v>
+      </c>
+      <c r="F13" s="21">
+        <v>100</v>
+      </c>
+      <c r="G13" s="21">
+        <v>90</v>
+      </c>
+      <c r="H13" s="21">
+        <v>100</v>
+      </c>
+      <c r="I13" s="21">
+        <v>100</v>
+      </c>
+      <c r="J13" s="21">
+        <v>80</v>
+      </c>
+      <c r="K13" s="31">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <f>MIN($B11:$K11)</f>
+        <v>60</v>
+      </c>
+      <c r="P13">
+        <f>MIN($B12:$K12)</f>
+        <v>60</v>
+      </c>
+      <c r="Q13">
+        <f>MIN($B13:$K13)</f>
+        <v>80</v>
+      </c>
+      <c r="R13">
+        <f>MIN($B14:$K14)</f>
+        <v>80</v>
+      </c>
+      <c r="S13">
+        <f>MIN($B15:$K15)</f>
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <f>MIN($B16:$K16)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="21">
+        <v>80</v>
+      </c>
+      <c r="C14" s="21">
+        <v>80</v>
+      </c>
+      <c r="D14" s="21">
+        <v>80</v>
+      </c>
+      <c r="E14" s="21">
+        <v>100</v>
+      </c>
+      <c r="F14" s="21">
+        <v>100</v>
+      </c>
+      <c r="G14" s="21">
+        <v>90</v>
+      </c>
+      <c r="H14" s="21">
+        <v>80</v>
+      </c>
+      <c r="I14" s="21">
+        <v>90</v>
+      </c>
+      <c r="J14" s="21">
+        <v>80</v>
+      </c>
+      <c r="K14" s="31">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <f>MAX($B11:$K11)</f>
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <f>MAX($B12:$K12)</f>
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <f>MAX($B13:$K13)</f>
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <f>MAX($B14:$K14)</f>
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <f>MAX($B15:$K15)</f>
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <f>MAX($B16:$K16)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="21">
+        <v>80</v>
+      </c>
+      <c r="C15" s="21">
+        <v>100</v>
+      </c>
+      <c r="D15" s="21">
+        <v>70</v>
+      </c>
+      <c r="E15" s="21">
+        <v>90</v>
+      </c>
+      <c r="F15" s="21">
+        <v>100</v>
+      </c>
+      <c r="G15" s="21">
+        <v>30</v>
+      </c>
+      <c r="H15" s="21">
+        <v>90</v>
+      </c>
+      <c r="I15" s="21">
+        <v>90</v>
+      </c>
+      <c r="J15" s="21">
+        <v>80</v>
+      </c>
+      <c r="K15" s="31">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <f>_xlfn.QUARTILE.EXC($B11:$K11,3)</f>
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <f>_xlfn.QUARTILE.EXC($B12:$K12,3)</f>
+        <v>90</v>
+      </c>
+      <c r="Q15">
+        <f>_xlfn.QUARTILE.EXC($B13:$K13,3)</f>
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <f>_xlfn.QUARTILE.EXC($B14:$K14,3)</f>
+        <v>92.5</v>
+      </c>
+      <c r="S15">
+        <f>_xlfn.QUARTILE.EXC($B15:$K15,3)</f>
+        <v>92.5</v>
+      </c>
+      <c r="T15">
+        <f>_xlfn.QUARTILE.EXC($B16:$K16,3)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="32">
+        <v>60</v>
+      </c>
+      <c r="C16" s="32">
+        <v>60</v>
+      </c>
+      <c r="D16" s="32">
+        <v>80</v>
+      </c>
+      <c r="E16" s="32">
+        <v>80</v>
+      </c>
+      <c r="F16" s="32">
+        <v>70</v>
+      </c>
+      <c r="G16" s="32">
+        <v>90</v>
+      </c>
+      <c r="H16" s="32">
+        <v>70</v>
+      </c>
+      <c r="I16" s="32">
+        <v>80</v>
+      </c>
+      <c r="J16" s="32">
+        <v>70</v>
+      </c>
+      <c r="K16" s="33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
-        <v>100</v>
-      </c>
-      <c r="C11" s="24">
-        <v>100</v>
-      </c>
-      <c r="D11" s="24">
-        <v>100</v>
-      </c>
-      <c r="E11" s="24">
-        <v>70</v>
-      </c>
-      <c r="F11" s="24">
-        <v>80</v>
-      </c>
-      <c r="G11" s="24">
-        <v>90</v>
-      </c>
-      <c r="H11" s="24">
-        <v>70</v>
-      </c>
-      <c r="I11" s="24">
-        <v>60</v>
-      </c>
-      <c r="J11" s="24">
-        <v>70</v>
-      </c>
-      <c r="K11" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="P17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24">
-        <v>90</v>
-      </c>
-      <c r="C12" s="24">
-        <v>70</v>
-      </c>
-      <c r="D12" s="24">
-        <v>70</v>
-      </c>
-      <c r="E12" s="24">
-        <v>60</v>
-      </c>
-      <c r="F12" s="24">
-        <v>90</v>
-      </c>
-      <c r="G12" s="24">
-        <v>90</v>
-      </c>
-      <c r="H12" s="24">
-        <v>90</v>
-      </c>
-      <c r="I12" s="24">
-        <v>100</v>
-      </c>
-      <c r="J12" s="24">
-        <v>70</v>
-      </c>
-      <c r="K12" s="37">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="Q17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24">
-        <v>100</v>
-      </c>
-      <c r="C13" s="24">
-        <v>100</v>
-      </c>
-      <c r="D13" s="24">
-        <v>100</v>
-      </c>
-      <c r="E13" s="24">
-        <v>100</v>
-      </c>
-      <c r="F13" s="24">
-        <v>100</v>
-      </c>
-      <c r="G13" s="24">
-        <v>90</v>
-      </c>
-      <c r="H13" s="24">
-        <v>100</v>
-      </c>
-      <c r="I13" s="24">
-        <v>100</v>
-      </c>
-      <c r="J13" s="24">
-        <v>80</v>
-      </c>
-      <c r="K13" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="R17" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="24">
-        <v>80</v>
-      </c>
-      <c r="C14" s="24">
-        <v>80</v>
-      </c>
-      <c r="D14" s="24">
-        <v>80</v>
-      </c>
-      <c r="E14" s="24">
-        <v>100</v>
-      </c>
-      <c r="F14" s="24">
-        <v>100</v>
-      </c>
-      <c r="G14" s="24">
-        <v>90</v>
-      </c>
-      <c r="H14" s="24">
-        <v>80</v>
-      </c>
-      <c r="I14" s="24">
-        <v>90</v>
-      </c>
-      <c r="J14" s="24">
-        <v>80</v>
-      </c>
-      <c r="K14" s="37">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+      <c r="S17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="24">
-        <v>80</v>
-      </c>
-      <c r="C15" s="24">
-        <v>100</v>
-      </c>
-      <c r="D15" s="24">
-        <v>70</v>
-      </c>
-      <c r="E15" s="24">
-        <v>90</v>
-      </c>
-      <c r="F15" s="24">
-        <v>100</v>
-      </c>
-      <c r="G15" s="24">
-        <v>30</v>
-      </c>
-      <c r="H15" s="24">
-        <v>90</v>
-      </c>
-      <c r="I15" s="24">
-        <v>90</v>
-      </c>
-      <c r="J15" s="24">
-        <v>80</v>
-      </c>
-      <c r="K15" s="37">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
+      <c r="T17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38">
-        <v>60</v>
-      </c>
-      <c r="C16" s="38">
-        <v>60</v>
-      </c>
-      <c r="D16" s="38">
-        <v>80</v>
-      </c>
-      <c r="E16" s="38">
-        <v>80</v>
-      </c>
-      <c r="F16" s="38">
-        <v>70</v>
-      </c>
-      <c r="G16" s="38">
-        <v>90</v>
-      </c>
-      <c r="H16" s="38">
-        <v>70</v>
-      </c>
-      <c r="I16" s="38">
-        <v>80</v>
-      </c>
-      <c r="J16" s="38">
-        <v>70</v>
-      </c>
-      <c r="K16" s="39">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="24">
-        <v>83</v>
-      </c>
-      <c r="C18" s="24">
-        <v>100</v>
-      </c>
-      <c r="D18" s="24">
-        <v>83</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="B18" s="21">
+        <v>83</v>
+      </c>
+      <c r="C18" s="21">
+        <v>100</v>
+      </c>
+      <c r="D18" s="21">
+        <v>83</v>
+      </c>
+      <c r="E18" s="21">
         <v>67</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>75</v>
       </c>
-      <c r="G18" s="24">
-        <v>92</v>
-      </c>
-      <c r="H18" s="24">
+      <c r="G18" s="21">
+        <v>92</v>
+      </c>
+      <c r="H18" s="21">
         <v>67</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="21">
         <v>67</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="21">
         <v>75</v>
       </c>
-      <c r="K18" s="37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+      <c r="K18" s="31">
+        <v>83</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <f xml:space="preserve"> MEDIAN($B18:$K18)</f>
+        <v>79</v>
+      </c>
+      <c r="P18">
+        <f xml:space="preserve"> MEDIAN($B19:$K19)</f>
+        <v>75</v>
+      </c>
+      <c r="Q18">
+        <f xml:space="preserve"> MEDIAN($B20:$K20)</f>
+        <v>96</v>
+      </c>
+      <c r="R18">
+        <f xml:space="preserve"> MEDIAN($B21:$K21)</f>
+        <v>87.5</v>
+      </c>
+      <c r="S18">
+        <f xml:space="preserve"> MEDIAN($B22:$K22)</f>
+        <v>83</v>
+      </c>
+      <c r="T18">
+        <f xml:space="preserve"> MEDIAN($B23:$K23)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="24">
-        <v>83</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="21">
+        <v>83</v>
+      </c>
+      <c r="C19" s="21">
         <v>75</v>
       </c>
-      <c r="D19" s="24">
-        <v>83</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="21">
+        <v>83</v>
+      </c>
+      <c r="E19" s="21">
         <v>75</v>
       </c>
-      <c r="F19" s="24">
-        <v>83</v>
-      </c>
-      <c r="G19" s="24">
+      <c r="F19" s="21">
+        <v>83</v>
+      </c>
+      <c r="G19" s="21">
         <v>75</v>
       </c>
-      <c r="H19" s="24">
-        <v>83</v>
-      </c>
-      <c r="I19" s="24">
+      <c r="H19" s="21">
+        <v>83</v>
+      </c>
+      <c r="I19" s="21">
         <v>75</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="21">
         <v>67</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="31">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B18:$K18,1)</f>
+        <v>67</v>
+      </c>
+      <c r="P19">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B19:$K19,1)</f>
+        <v>73</v>
+      </c>
+      <c r="Q19">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B20:$K20,1)</f>
+        <v>89.75</v>
+      </c>
+      <c r="R19">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B21:$K21,1)</f>
+        <v>81</v>
+      </c>
+      <c r="S19">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B22:$K22,1)</f>
+        <v>70.75</v>
+      </c>
+      <c r="T19">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B23:$K23,1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="24">
-        <v>100</v>
-      </c>
-      <c r="C20" s="24">
-        <v>100</v>
-      </c>
-      <c r="D20" s="24">
-        <v>100</v>
-      </c>
-      <c r="E20" s="24">
-        <v>92</v>
-      </c>
-      <c r="F20" s="24">
-        <v>92</v>
-      </c>
-      <c r="G20" s="24">
-        <v>92</v>
-      </c>
-      <c r="H20" s="24">
-        <v>100</v>
-      </c>
-      <c r="I20" s="24">
-        <v>100</v>
-      </c>
-      <c r="J20" s="24">
-        <v>83</v>
-      </c>
-      <c r="K20" s="37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
+      <c r="B20" s="21">
+        <v>100</v>
+      </c>
+      <c r="C20" s="21">
+        <v>100</v>
+      </c>
+      <c r="D20" s="21">
+        <v>100</v>
+      </c>
+      <c r="E20" s="21">
+        <v>92</v>
+      </c>
+      <c r="F20" s="21">
+        <v>92</v>
+      </c>
+      <c r="G20" s="21">
+        <v>92</v>
+      </c>
+      <c r="H20" s="21">
+        <v>100</v>
+      </c>
+      <c r="I20" s="21">
+        <v>100</v>
+      </c>
+      <c r="J20" s="21">
+        <v>83</v>
+      </c>
+      <c r="K20" s="31">
+        <v>83</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <f>MIN($B18:$K18)</f>
+        <v>67</v>
+      </c>
+      <c r="P20">
+        <f>MIN($B19:$K19)</f>
+        <v>67</v>
+      </c>
+      <c r="Q20">
+        <f>MIN($B20:$K20)</f>
+        <v>83</v>
+      </c>
+      <c r="R20">
+        <f>MIN($B21:$K21)</f>
+        <v>75</v>
+      </c>
+      <c r="S20">
+        <f>MIN($B22:$K22)</f>
+        <v>33</v>
+      </c>
+      <c r="T20">
+        <f>MIN($B23:$K23)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>75</v>
       </c>
-      <c r="C21" s="24">
-        <v>83</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="21">
+        <v>83</v>
+      </c>
+      <c r="D21" s="21">
         <v>75</v>
       </c>
-      <c r="E21" s="24">
-        <v>92</v>
-      </c>
-      <c r="F21" s="24">
-        <v>100</v>
-      </c>
-      <c r="G21" s="24">
-        <v>83</v>
-      </c>
-      <c r="H21" s="24">
-        <v>83</v>
-      </c>
-      <c r="I21" s="24">
-        <v>92</v>
-      </c>
-      <c r="J21" s="24">
-        <v>92</v>
-      </c>
-      <c r="K21" s="37">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="E21" s="21">
+        <v>92</v>
+      </c>
+      <c r="F21" s="21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="21">
+        <v>83</v>
+      </c>
+      <c r="H21" s="21">
+        <v>83</v>
+      </c>
+      <c r="I21" s="21">
+        <v>92</v>
+      </c>
+      <c r="J21" s="21">
+        <v>92</v>
+      </c>
+      <c r="K21" s="31">
+        <v>92</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21">
+        <f>MAX($B18:$K18)</f>
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <f>MAX($B19:$K19)</f>
+        <v>83</v>
+      </c>
+      <c r="Q21">
+        <f>MAX($B20:$K20)</f>
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <f>MAX($B21:$K21)</f>
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <f>MAX($B22:$K22)</f>
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <f>MAX($B23:$K23)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="24">
-        <v>83</v>
-      </c>
-      <c r="C22" s="24">
-        <v>83</v>
-      </c>
-      <c r="D22" s="24">
-        <v>83</v>
-      </c>
-      <c r="E22" s="24">
-        <v>92</v>
-      </c>
-      <c r="F22" s="24">
-        <v>100</v>
-      </c>
-      <c r="G22" s="24">
+      <c r="B22" s="21">
+        <v>83</v>
+      </c>
+      <c r="C22" s="21">
+        <v>83</v>
+      </c>
+      <c r="D22" s="21">
+        <v>83</v>
+      </c>
+      <c r="E22" s="21">
+        <v>92</v>
+      </c>
+      <c r="F22" s="21">
+        <v>100</v>
+      </c>
+      <c r="G22" s="21">
         <v>33</v>
       </c>
-      <c r="H22" s="24">
-        <v>92</v>
-      </c>
-      <c r="I22" s="24">
+      <c r="H22" s="21">
+        <v>92</v>
+      </c>
+      <c r="I22" s="21">
         <v>58</v>
       </c>
-      <c r="J22" s="24">
-        <v>83</v>
-      </c>
-      <c r="K22" s="37">
+      <c r="J22" s="21">
+        <v>83</v>
+      </c>
+      <c r="K22" s="31">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40" t="s">
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22">
+        <f>_xlfn.QUARTILE.EXC($B18:$K18,3)</f>
+        <v>85.25</v>
+      </c>
+      <c r="P22">
+        <f>_xlfn.QUARTILE.EXC($B19:$K19,3)</f>
+        <v>83</v>
+      </c>
+      <c r="Q22">
+        <f>_xlfn.QUARTILE.EXC($B20:$K20,3)</f>
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <f>_xlfn.QUARTILE.EXC($B21:$K21,3)</f>
+        <v>92</v>
+      </c>
+      <c r="S22">
+        <f>_xlfn.QUARTILE.EXC($B22:$K22,3)</f>
+        <v>92</v>
+      </c>
+      <c r="T22">
+        <f>_xlfn.QUARTILE.EXC($B23:$K23,3)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="32">
         <v>50</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="32">
         <v>50</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="32">
         <v>67</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="32">
         <v>67</v>
       </c>
-      <c r="F23" s="38">
-        <v>83</v>
-      </c>
-      <c r="G23" s="38">
+      <c r="F23" s="32">
+        <v>83</v>
+      </c>
+      <c r="G23" s="32">
         <v>75</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="32">
         <v>67</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="32">
         <v>67</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="32">
         <v>67</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26" t="s">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="O26" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="24">
-        <v>83</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="P26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="21">
+        <v>83</v>
+      </c>
+      <c r="C27" s="21">
         <v>75</v>
       </c>
-      <c r="D27" s="24">
-        <v>83</v>
-      </c>
-      <c r="E27" s="24">
-        <v>92</v>
-      </c>
-      <c r="F27" s="24">
-        <v>92</v>
-      </c>
-      <c r="G27" s="24">
+      <c r="D27" s="21">
+        <v>83</v>
+      </c>
+      <c r="E27" s="21">
+        <v>92</v>
+      </c>
+      <c r="F27" s="21">
+        <v>92</v>
+      </c>
+      <c r="G27" s="21">
         <v>75</v>
       </c>
-      <c r="H27" s="24">
-        <v>83</v>
-      </c>
-      <c r="I27" s="24">
-        <v>83</v>
-      </c>
-      <c r="J27" s="24">
+      <c r="H27" s="21">
+        <v>83</v>
+      </c>
+      <c r="I27" s="21">
+        <v>83</v>
+      </c>
+      <c r="J27" s="21">
         <v>75</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="31">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27">
+        <f xml:space="preserve"> MEDIAN($B27:$K27)</f>
+        <v>83</v>
+      </c>
+      <c r="P27">
+        <f xml:space="preserve"> MEDIAN($B28:$K28)</f>
+        <v>75</v>
+      </c>
+      <c r="Q27">
+        <f xml:space="preserve"> MEDIAN($B29:$K29)</f>
+        <v>92</v>
+      </c>
+      <c r="R27">
+        <f xml:space="preserve"> MEDIAN($B30:$K30)</f>
+        <v>87.5</v>
+      </c>
+      <c r="S27">
+        <f xml:space="preserve"> MEDIAN($B31:$K31)</f>
+        <v>79</v>
+      </c>
+      <c r="T27">
+        <f xml:space="preserve"> MEDIAN($B32:$K32)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="21">
         <v>75</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="21">
         <v>75</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="21">
         <v>75</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <v>50</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="21">
         <v>58</v>
       </c>
-      <c r="G28" s="24">
-        <v>83</v>
-      </c>
-      <c r="H28" s="24">
-        <v>83</v>
-      </c>
-      <c r="I28" s="24">
-        <v>83</v>
-      </c>
-      <c r="J28" s="24">
-        <v>92</v>
-      </c>
-      <c r="K28" s="37">
+      <c r="G28" s="21">
+        <v>83</v>
+      </c>
+      <c r="H28" s="21">
+        <v>83</v>
+      </c>
+      <c r="I28" s="21">
+        <v>83</v>
+      </c>
+      <c r="J28" s="21">
+        <v>92</v>
+      </c>
+      <c r="K28" s="31">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B27:$K27,1)</f>
+        <v>75</v>
+      </c>
+      <c r="P28">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B28:$K28,1)</f>
+        <v>70.75</v>
+      </c>
+      <c r="Q28">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B29:$K29,1)</f>
+        <v>79</v>
+      </c>
+      <c r="R28">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B30:$K30,1)</f>
+        <v>81</v>
+      </c>
+      <c r="S28">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B31:$K31,1)</f>
+        <v>67</v>
+      </c>
+      <c r="T28">
+        <f xml:space="preserve"> _xlfn.QUARTILE.EXC($B32:$K32,1)</f>
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="21">
         <v>58</v>
       </c>
-      <c r="C29" s="24">
-        <v>92</v>
-      </c>
-      <c r="D29" s="24">
-        <v>83</v>
-      </c>
-      <c r="E29" s="24">
-        <v>83</v>
-      </c>
-      <c r="F29" s="24">
-        <v>92</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="C29" s="21">
+        <v>92</v>
+      </c>
+      <c r="D29" s="21">
+        <v>83</v>
+      </c>
+      <c r="E29" s="21">
+        <v>83</v>
+      </c>
+      <c r="F29" s="21">
+        <v>92</v>
+      </c>
+      <c r="G29" s="21">
         <v>67</v>
       </c>
-      <c r="H29" s="24">
-        <v>92</v>
-      </c>
-      <c r="I29" s="24">
-        <v>100</v>
-      </c>
-      <c r="J29" s="24">
-        <v>92</v>
-      </c>
-      <c r="K29" s="37">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
+      <c r="H29" s="21">
+        <v>92</v>
+      </c>
+      <c r="I29" s="21">
+        <v>100</v>
+      </c>
+      <c r="J29" s="21">
+        <v>92</v>
+      </c>
+      <c r="K29" s="31">
+        <v>92</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29">
+        <f>MIN($B27:$K27)</f>
+        <v>75</v>
+      </c>
+      <c r="P29">
+        <f>MIN($B28:$K28)</f>
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <f>MIN($B29:$K29)</f>
+        <v>58</v>
+      </c>
+      <c r="R29">
+        <f>MIN($B30:$K30)</f>
+        <v>75</v>
+      </c>
+      <c r="S29">
+        <f>MIN($B31:$K31)</f>
+        <v>58</v>
+      </c>
+      <c r="T29">
+        <f>MIN($B32:$K32)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="21">
         <v>75</v>
       </c>
-      <c r="C30" s="24">
-        <v>92</v>
-      </c>
-      <c r="D30" s="24">
-        <v>92</v>
-      </c>
-      <c r="E30" s="24">
-        <v>92</v>
-      </c>
-      <c r="F30" s="24">
-        <v>92</v>
-      </c>
-      <c r="G30" s="24">
-        <v>83</v>
-      </c>
-      <c r="H30" s="24">
+      <c r="C30" s="21">
+        <v>92</v>
+      </c>
+      <c r="D30" s="21">
+        <v>92</v>
+      </c>
+      <c r="E30" s="21">
+        <v>92</v>
+      </c>
+      <c r="F30" s="21">
+        <v>92</v>
+      </c>
+      <c r="G30" s="21">
+        <v>83</v>
+      </c>
+      <c r="H30" s="21">
         <v>75</v>
       </c>
-      <c r="I30" s="24">
-        <v>92</v>
-      </c>
-      <c r="J30" s="24">
-        <v>83</v>
-      </c>
-      <c r="K30" s="37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
+      <c r="I30" s="21">
+        <v>92</v>
+      </c>
+      <c r="J30" s="21">
+        <v>83</v>
+      </c>
+      <c r="K30" s="31">
+        <v>83</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30">
+        <f>MAX($B27:$K27)</f>
+        <v>92</v>
+      </c>
+      <c r="P30">
+        <f>MAX($B28:$K28)</f>
+        <v>92</v>
+      </c>
+      <c r="Q30">
+        <f>MAX($B29:$K29)</f>
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <f>MAX($B30:$K30)</f>
+        <v>92</v>
+      </c>
+      <c r="S30">
+        <f>MAX($B31:$K31)</f>
+        <v>92</v>
+      </c>
+      <c r="T30">
+        <f>MAX($B32:$K32)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="21">
         <v>67</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="21">
         <v>67</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="21">
         <v>67</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="21">
         <v>58</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="21">
         <v>75</v>
       </c>
-      <c r="G31" s="24">
-        <v>83</v>
-      </c>
-      <c r="H31" s="24">
-        <v>92</v>
-      </c>
-      <c r="I31" s="24">
-        <v>83</v>
-      </c>
-      <c r="J31" s="24">
-        <v>83</v>
-      </c>
-      <c r="K31" s="37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="40" t="s">
+      <c r="G31" s="21">
+        <v>83</v>
+      </c>
+      <c r="H31" s="21">
+        <v>92</v>
+      </c>
+      <c r="I31" s="21">
+        <v>83</v>
+      </c>
+      <c r="J31" s="21">
+        <v>83</v>
+      </c>
+      <c r="K31" s="31">
+        <v>83</v>
+      </c>
+      <c r="N31" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31">
+        <f>_xlfn.QUARTILE.EXC($B27:$K27,3)</f>
+        <v>85.25</v>
+      </c>
+      <c r="P31">
+        <f>_xlfn.QUARTILE.EXC($B28:$K28,3)</f>
+        <v>83</v>
+      </c>
+      <c r="Q31">
+        <f>_xlfn.QUARTILE.EXC($B29:$K29,3)</f>
+        <v>92</v>
+      </c>
+      <c r="R31">
+        <f>_xlfn.QUARTILE.EXC($B30:$K30,3)</f>
+        <v>92</v>
+      </c>
+      <c r="S31">
+        <f>_xlfn.QUARTILE.EXC($B31:$K31,3)</f>
+        <v>83</v>
+      </c>
+      <c r="T31">
+        <f>_xlfn.QUARTILE.EXC($B32:$K32,3)</f>
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="32">
         <v>25</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="32">
         <v>42</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="32">
         <v>67</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="32">
         <v>42</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="32">
         <v>25</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="32">
         <v>42</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="32">
         <v>58</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="32">
         <v>58</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="32">
         <v>67</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="33">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/finalresults.xlsx
+++ b/documents/finalresults.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="27">
   <si>
     <t xml:space="preserve">LDA </t>
   </si>
@@ -104,6 +104,9 @@
   <si>
     <t xml:space="preserve">10 words spoken </t>
   </si>
+  <si>
+    <t>/-&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -239,13 +242,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -258,50 +263,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -565,11 +529,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -577,55 +616,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,19 +948,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
@@ -928,16 +970,16 @@
       <c r="E2" s="37"/>
       <c r="F2" s="22"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="23"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>0</v>
@@ -953,21 +995,21 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -985,23 +1027,27 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="10">
-        <v>90</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="I4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1">
         <v>51</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="1">
         <v>65</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1019,10 +1065,10 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="1">
         <v>80</v>
       </c>
       <c r="J5" s="1">
@@ -1034,8 +1080,12 @@
       <c r="L5" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1053,10 +1103,10 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="1">
         <v>83</v>
       </c>
       <c r="J6" s="1">
@@ -1068,8 +1118,12 @@
       <c r="L6" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1087,10 +1141,10 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>91</v>
       </c>
       <c r="J7" s="1">
@@ -1102,8 +1156,12 @@
       <c r="L7" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1121,10 +1179,10 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>88</v>
       </c>
       <c r="J8" s="1">
@@ -1136,8 +1194,12 @@
       <c r="L8" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1155,23 +1217,27 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="1">
         <v>50</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>42</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>37</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
@@ -1180,7 +1246,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="28">
-        <f t="shared" ref="C10:E10" si="0" xml:space="preserve"> SUM(C4:C9)/6</f>
+        <f t="shared" ref="C10:F10" si="0" xml:space="preserve"> SUM(C4:C9)/6</f>
         <v>65.166666666666671</v>
       </c>
       <c r="D10" s="28">
@@ -1193,28 +1259,32 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="3">
         <f xml:space="preserve"> SUM(I4:I9)/6</f>
         <v>80.333333333333329</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="3">
         <f t="shared" ref="J10:L10" si="1" xml:space="preserve"> SUM(J4:J9)/6</f>
         <v>55.5</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>58.666666666666664</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>35.833333333333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1300,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
         <v>0</v>
@@ -1258,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1506,25 +1576,25 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
@@ -1655,6 +1725,9 @@
       <c r="K4" s="31">
         <v>80</v>
       </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
       <c r="N4" t="s">
         <v>20</v>
       </c>
@@ -2096,6 +2169,9 @@
       <c r="K13" s="31">
         <v>100</v>
       </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
       <c r="N13" t="s">
         <v>21</v>
       </c>
@@ -2474,6 +2550,9 @@
       <c r="K20" s="31">
         <v>83</v>
       </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
       <c r="N20" t="s">
         <v>21</v>
       </c>

--- a/documents/finalresults.xlsx
+++ b/documents/finalresults.xlsx
@@ -644,6 +644,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,10 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,8 +665,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,6 +683,1416 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 10-fold cross validation classification accuracies </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10 fold cross validation'!$O$2:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 fold cross validation'!$O$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="448646256"/>
+        <c:axId val="448650568"/>
+      </c:barChart>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10 fold cross validation'!$O$2:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 fold cross validation'!$O$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10 fold cross validation'!$O$2:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 fold cross validation'!$O$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10 fold cross validation'!$O$2:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 fold cross validation'!$O$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10 fold cross validation'!$O$2:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 fold cross validation'!$O$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="448652136"/>
+        <c:axId val="448647432"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="448646256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448650568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448650568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="448646256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="448647432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448652136"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="448652136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="448647432"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d prstMaterial="dkEdge"/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>450851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>301425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,22 +2371,22 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="22"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -995,7 +2405,7 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="43"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +2437,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="1">
@@ -1045,7 +2455,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
-      <c r="P4" s="39"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1065,7 +2475,7 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="1">
@@ -1083,7 +2493,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="39"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -1103,7 +2513,7 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -1121,7 +2531,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="39"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -1141,7 +2551,7 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="1">
@@ -1159,7 +2569,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
-      <c r="P7" s="39"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1179,7 +2589,7 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="1">
@@ -1197,7 +2607,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="39"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
@@ -1217,7 +2627,7 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="36" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1">
@@ -1235,7 +2645,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="39"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
@@ -1246,7 +2656,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="28">
-        <f t="shared" ref="C10:F10" si="0" xml:space="preserve"> SUM(C4:C9)/6</f>
+        <f t="shared" ref="C10:E10" si="0" xml:space="preserve"> SUM(C4:C9)/6</f>
         <v>65.166666666666671</v>
       </c>
       <c r="D10" s="28">
@@ -1259,7 +2669,7 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="37" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="3">
@@ -1285,20 +2695,20 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="H13" s="35" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="H13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
@@ -1576,40 +2986,40 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="O2" t="s">
         <v>4</v>
       </c>
@@ -1979,19 +3389,19 @@
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
       <c r="O10" t="s">
         <v>4</v>
       </c>
@@ -2360,19 +3770,19 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="O17" t="s">
         <v>4</v>
       </c>
@@ -2742,19 +4152,19 @@
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
       <c r="O26" t="s">
         <v>4</v>
       </c>
@@ -3128,5 +4538,6 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>